--- a/rhla_analysis/rhla1_3_normal_result/k2.xlsx
+++ b/rhla_analysis/rhla1_3_normal_result/k2.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01019304675554707</v>
+        <v>0.01019304675554713</v>
       </c>
       <c r="B2" t="n">
         <v>0.2210633148670374</v>
@@ -466,12 +466,12 @@
         <v>0.0959079283887468</v>
       </c>
       <c r="D2" t="n">
-        <v>21.6876582800657</v>
+        <v>21.68765828006559</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02512376018812069</v>
+        <v>0.02512376018812088</v>
       </c>
       <c r="B3" t="n">
         <v>0.2149363740362141</v>
@@ -480,12 +480,12 @@
         <v>0.08951406649616368</v>
       </c>
       <c r="D3" t="n">
-        <v>8.555103711658688</v>
+        <v>8.555103711658624</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0198787265359347</v>
+        <v>0.01987872653593467</v>
       </c>
       <c r="B4" t="n">
         <v>0.345420898912714</v>
@@ -494,12 +494,12 @@
         <v>0.06052855924978687</v>
       </c>
       <c r="D4" t="n">
-        <v>17.37640981620719</v>
+        <v>17.37640981620721</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.008413614739690571</v>
+        <v>0.008413614739690512</v>
       </c>
       <c r="B5" t="n">
         <v>0.2527929237206277</v>
@@ -508,12 +508,12 @@
         <v>0.06990622335890878</v>
       </c>
       <c r="D5" t="n">
-        <v>30.04569754401718</v>
+        <v>30.04569754401739</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.02360240466922204</v>
+        <v>0.02360240466922201</v>
       </c>
       <c r="B6" t="n">
         <v>0.201374750214649</v>
@@ -522,12 +522,12 @@
         <v>0.08354646206308611</v>
       </c>
       <c r="D6" t="n">
-        <v>8.531959054038477</v>
+        <v>8.531959054038488</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02133540036735999</v>
+        <v>0.02133540036735977</v>
       </c>
       <c r="B7" t="n">
         <v>0.2367716236587334</v>
@@ -536,12 +536,12 @@
         <v>0.07459505541346974</v>
       </c>
       <c r="D7" t="n">
-        <v>11.09759458842681</v>
+        <v>11.09759458842692</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01115908399178071</v>
+        <v>0.01115908399178075</v>
       </c>
       <c r="B8" t="n">
         <v>0.197227772265842</v>
@@ -550,12 +550,12 @@
         <v>0.07800511508951406</v>
       </c>
       <c r="D8" t="n">
-        <v>17.6741901406165</v>
+        <v>17.67419014061643</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01715325693849108</v>
+        <v>0.0171532569384912</v>
       </c>
       <c r="B9" t="n">
         <v>0.2467935856138632</v>
@@ -564,12 +564,12 @@
         <v>0.08780903665814152</v>
       </c>
       <c r="D9" t="n">
-        <v>14.3875642100405</v>
+        <v>14.3875642100404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01396406042862405</v>
+        <v>0.01396406042862406</v>
       </c>
       <c r="B10" t="n">
         <v>0.1979958840631436</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.02280094856428607</v>
+        <v>0.02280094856428593</v>
       </c>
       <c r="B11" t="n">
         <v>0.1876144388726107</v>
@@ -592,7 +592,7 @@
         <v>0.07416879795396419</v>
       </c>
       <c r="D11" t="n">
-        <v>8.228361129083808</v>
+        <v>8.228361129083858</v>
       </c>
     </row>
   </sheetData>
